--- a/public/Template_Excel/penilaian_risiko.xlsx
+++ b/public/Template_Excel/penilaian_risiko.xlsx
@@ -62,11 +62,6 @@
     <t>Jumlah koleksi data yang dipertukarkan dengan Kementrian/Lembaga lain</t>
   </si>
   <si>
-    <t>Jenis Risiko:
-- Positif 
-- Negatif</t>
-  </si>
-  <si>
     <t>Isi kolom indikator kinerja, kategori, dan area dampak dengan penulisan sesuai dengan dokumen penetapan konteks risiko</t>
   </si>
   <si>
@@ -92,16 +87,21 @@
 5. Sangat Signifikan</t>
   </si>
   <si>
-    <t>Jenis Risiko SPBE (sesuaikan penulisan dengan daftar)</t>
-  </si>
-  <si>
-    <t>Kategori (sesuaikan penulisan dengan daftar)</t>
-  </si>
-  <si>
-    <t>Area Dampak (sesuaikan penulisan dengan daftar)</t>
-  </si>
-  <si>
-    <t>Indikator Kinerja (sesuaikan penulisan dengan daftar)</t>
+    <t>Jenis Risiko:
+1. Positif 
+2. Negatif</t>
+  </si>
+  <si>
+    <t>Indikator Kinerja (sesuaikan penulisan dengan dokumen 2.2)</t>
+  </si>
+  <si>
+    <t>Kategori (sesuaikan penulisan dengan dokumen 2.6)</t>
+  </si>
+  <si>
+    <t>Area Dampak (sesuaikan penulisan dengan dokumen 2.7)</t>
+  </si>
+  <si>
+    <t>Jenis Risiko SPBE (sesuaikan penulisan dengan daftar jenis risiko di atas)</t>
   </si>
 </sst>
 </file>
@@ -309,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -318,27 +321,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,28 +653,28 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>14</v>
+      <c r="A1" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -685,64 +685,64 @@
       <c r="H2" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
